--- a/assets/work_metadado_flights.xlsx
+++ b/assets/work_metadado_flights.xlsx
@@ -1,19 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6f054485a52af266/Github/learn-python/PROJETOS/db-pipeline/assets/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="175" documentId="11_AD4D361C20488DEA4E38A093BC5F47C25BDEDD84" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{574BF420-7391-451F-831E-C76D1CCCF802}"/>
   <bookViews>
-    <workbookView xWindow="-21697" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21690" yWindow="-105" windowWidth="21795" windowHeight="12975"/>
   </bookViews>
   <sheets>
-    <sheet name="work" sheetId="1" r:id="rId1"/>
+    <sheet name="work_metadado_flights" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -129,7 +123,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -187,10 +181,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -234,7 +224,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -269,7 +259,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -446,18 +436,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
